--- a/share/testdoc.xlsx
+++ b/share/testdoc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1114">
   <si>
     <t>номер договора</t>
   </si>
@@ -3883,7 +3883,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4289,6 +4289,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4390,7 +4393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4425,7 +4428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4637,8 +4640,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4695,8 +4698,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="3">
+        <v>11111</v>
       </c>
       <c r="B2" s="4">
         <v>44210</v>
@@ -5787,7 +5790,6 @@
       <c r="I41" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K10"/>
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1"/>
     <hyperlink ref="K8" r:id="rId2"/>
